--- a/src/JCSGYK/AdminBundle/Resources/public/reports/catering_summary.xlsx
+++ b/src/JCSGYK/AdminBundle/Resources/public/reports/catering_summary.xlsx
@@ -1,15 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="10660" yWindow="2200" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
-    <sheet name="Munka2" sheetId="2" r:id="rId2"/>
-    <sheet name="Munka3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Munka1!$3:$3</definedName>
@@ -898,38 +896,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/src/JCSGYK/AdminBundle/Resources/public/reports/catering_summary.xlsx
+++ b/src/JCSGYK/AdminBundle/Resources/public/reports/catering_summary.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="10660" yWindow="2200" windowWidth="25600" windowHeight="16060"/>
@@ -27,13 +27,7 @@
     <t>[ca.cim][ca.klub]</t>
   </si>
   <si>
-    <t>[catering.balance]</t>
-  </si>
-  <si>
     <t>Név</t>
-  </si>
-  <si>
-    <t>Egyenleg</t>
   </si>
   <si>
     <t>Étkezési napok száma</t>
@@ -78,12 +72,18 @@
       <t xml:space="preserve">  [catering.address]</t>
     </r>
   </si>
+  <si>
+    <t>Tartozás</t>
+  </si>
+  <si>
+    <t>[catering.debt]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial CE"/>
@@ -124,6 +124,11 @@
       <sz val="9"/>
       <name val="Arial CE"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -270,7 +275,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -295,6 +300,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="111">
@@ -841,42 +849,42 @@
     </row>
     <row r="3" spans="1:6" s="9" customFormat="1" ht="43" customHeight="1">
       <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
